--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_99.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
+          <t>[['E:7', 'A', 'E/4']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(70.34, 77.22)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(61.22, 67.74)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:48.277000', '0:00:54.481000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:09.840000', '0:00:11.880000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1507352941176471</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C/5', 'G'], ['C/5', 'D/3', 'G']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4324942791762014</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G'], ['C', 'D', 'G']]</t>
+          <t>[['E', 'A', 'B', 'E', 'A', 'B', 'E', 'A', 'B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(59.182426, 64.464965), (33.466326, 38.923015)]</t>
+          <t>[['G', 'C', 'D', 'G', 'C', 'D', 'G', 'C', 'D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444), (19.151224, 25.606371)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:00.971398', '0:01:16.633258')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:50.506553', '0:01:05.901383')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06853146853146853</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C']]</t>
-        </is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_39</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.068935041979673</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D:7/5', 'G', 'G/2'], ['G', 'G/2', 'G/3'], ['G/3', 'G/#4', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(47.25, 51.08)]</t>
+          <t>[['Ab:7', 'Db', 'Db'], ['Db', 'Db', 'Db'], ['Db', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.98, 13.38)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:54.494587', '0:00:56.324374'), ('0:00:55.397573', '0:00:56.781821'), ('0:00:56.324374', '0:00:59.031496')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:24.460000', '0:01:27.540000'), ('0:01:55.560000', '0:01:59'), ('0:01:57', '0:02:00.020000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_42</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1902173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_150</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_192</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1184210526315789</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(19.36, 21.74)]</t>
+          <t>[['F', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.77, 53.98)]</t>
+          <t>[('0:00:55.151295', '0:01:00.155195')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:15.355124', '0:01:20.742154')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_197</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08391608391608392</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'G', 'C:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(109.52, 114.2)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:32.808000', '0:00:36.091000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:16.088141', '0:00:27.709728')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1440993788819876</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb', 'Eb']]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(44.16, 47.28)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.253, 22.735)]</t>
+          <t>[('0:00:09.560000', '0:00:25.140000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2107843137254902</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.389127, 22.035759)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(143.5, 176.78)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(102.0, 126.44)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.04, 51.46)]</t>
+          <t>[('0:01:06.920000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:19.040000', '0:00:22.580000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1629273504273504</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.82, 22.92)]</t>
+          <t>[['B:dim7', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.6, 8.74)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:30.076213', '0:00:37.274399')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2079002079002079</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'Eb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(64.139886, 72.16238)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(102.174263, 115.003287)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.86, 14.12)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'E:7', 'A:maj', 'C#:7/G#', 'G:(3,5)', 'B:maj', 'G#:(3,5,b7,b9)', 'C#:min/F#', 'E:maj/F#', 'F#:7', 'B:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(21.08, 23.68)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.320000', '0:00:40.640000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.03129327056217114</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Eb:maj6', 'Eb:maj6', 'Eb:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Eb:maj6', 'Eb:maj6', 'Eb:maj6']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.55, 41.84)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(192.68, 196.4)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D:7']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(15.1, 18.96)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(63.779977, 75.482834)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2678571428571428</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.014823, 12.241493)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.49, 47.86)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_84</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_62</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.04507839721254355</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Ab:7', 'Db:maj7', 'Db:maj7'], ['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj7', 'F:maj7'], ['G:min7', 'C:7', 'F:maj7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(23.98, 29.46), (22.17, 27.62)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.76, 7.92), (10.28, 12.63)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
